--- a/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-diagnosticreport-common.xlsx
+++ b/jpcore-r4/feature/swg5-add_terminologies/StructureDefinition-jp-diagnosticreport-common.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T16:49:32+00:00</t>
+    <t>2022-08-09T12:50:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -265,8 +265,7 @@
   <si>
     <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.
 これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
-【JP-CORE】
-DIagnosticReportリソースの共通プロフィール</t>
+【JP-Core仕様】DiagnosticReportリソースの共通プロフィール</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -669,7 +668,7 @@
 レポートの対象、常にではないが、通常、患者。ただし、診断サービスは、他のさまざまなソースから収集された検体を対象とすることもある。</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
+    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolvable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.
 参照は、実際のFHIRリソースへの参照である必要があり、内容に辿り着ける（解決できる）必要がある（アクセス制御、一時的な使用不可などを考慮に入れる）。解決は、URLから取得するか、リソースタイプによって該当する場合は、絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索することによって行うことができる。</t>
   </si>
   <si>
